--- a/02 CLanguage/015 字符串常量 扫描字符串.xlsx
+++ b/02 CLanguage/015 字符串常量 扫描字符串.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\02 CLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C81C2E2-0021-44A0-B083-0CC8E9080842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A23CDA0-1278-450A-BB19-F71BA5584E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -1311,7 +1311,7 @@
   </sheetPr>
   <dimension ref="B4:N24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -2606,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A89EB2-F660-497D-BFF3-08BF38CDF8DE}">
   <dimension ref="B2:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
